--- a/Aldersgrupper_SSB.xlsx
+++ b/Aldersgrupper_SSB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vgsnfk-my.sharepoint.com/personal/hanmyr_nfk_no/Documents/Skrivebord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{2A57042E-7775-4C87-B097-AE731226A286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39617AF2-7D02-401A-A71A-BDED601EEB00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1CD04E0-7E15-49AA-AA20-DD50E72592C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-6465" windowWidth="29040" windowHeight="17640" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BD91793-E4FC-450C-B54A-4317ACA116E5}"/>
   </bookViews>
   <sheets>
     <sheet name="AldersgrupperSSB" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="78">
   <si>
     <t>80-89 år</t>
   </si>
@@ -120,9 +120,6 @@
     <t>85-89 år</t>
   </si>
   <si>
-    <t>91 år eller eldre</t>
-  </si>
-  <si>
     <t>80-84 år</t>
   </si>
   <si>
@@ -135,21 +132,6 @@
     <t>100 år eller eldre</t>
   </si>
   <si>
-    <t>101 år eller eldre</t>
-  </si>
-  <si>
-    <t>102 år eller eldre</t>
-  </si>
-  <si>
-    <t>103 år eller eldre</t>
-  </si>
-  <si>
-    <t>104 år eller eldre</t>
-  </si>
-  <si>
-    <t>105 år eller eldre</t>
-  </si>
-  <si>
     <t>10-årige aldersgrupper</t>
   </si>
   <si>
@@ -189,45 +171,6 @@
     <t>18 år eller eldre</t>
   </si>
   <si>
-    <t>19 år eller eldre</t>
-  </si>
-  <si>
-    <t>20 år eller eldre</t>
-  </si>
-  <si>
-    <t>21 år eller eldre</t>
-  </si>
-  <si>
-    <t>22 år eller eldre</t>
-  </si>
-  <si>
-    <t>23 år eller eldre</t>
-  </si>
-  <si>
-    <t>24 år eller eldre</t>
-  </si>
-  <si>
-    <t>25 år eller eldre</t>
-  </si>
-  <si>
-    <t>26 år eller eldre</t>
-  </si>
-  <si>
-    <t>27 år eller eldre</t>
-  </si>
-  <si>
-    <t>28 år eller eldre</t>
-  </si>
-  <si>
-    <t>29 år eller eldre</t>
-  </si>
-  <si>
-    <t>30 år eller eldre</t>
-  </si>
-  <si>
-    <t>31 år eller eldre</t>
-  </si>
-  <si>
     <t>Tredelt</t>
   </si>
   <si>
@@ -252,42 +195,9 @@
     <t>67 år eller eldre</t>
   </si>
   <si>
-    <t>68 år eller eldre</t>
-  </si>
-  <si>
-    <t>69 år eller eldre</t>
-  </si>
-  <si>
-    <t>70 år eller eldre</t>
-  </si>
-  <si>
-    <t>71 år eller eldre</t>
-  </si>
-  <si>
-    <t>72 år eller eldre</t>
-  </si>
-  <si>
-    <t>73 år eller eldre</t>
-  </si>
-  <si>
-    <t>74 år eller eldre</t>
-  </si>
-  <si>
     <t>75 år eller eldre</t>
   </si>
   <si>
-    <t>76 år eller eldre</t>
-  </si>
-  <si>
-    <t>77 år eller eldre</t>
-  </si>
-  <si>
-    <t>78 år eller eldre</t>
-  </si>
-  <si>
-    <t>79 år eller eldre</t>
-  </si>
-  <si>
     <t>Funksjonell2a</t>
   </si>
   <si>
@@ -354,160 +264,7 @@
     <t>50-66 år</t>
   </si>
   <si>
-    <t>66 år eller eldre</t>
-  </si>
-  <si>
-    <t>81 år eller eldre</t>
-  </si>
-  <si>
-    <t>82 år eller eldre</t>
-  </si>
-  <si>
-    <t>83 år eller eldre</t>
-  </si>
-  <si>
-    <t>84 år eller eldre</t>
-  </si>
-  <si>
-    <t>85 år eller eldre</t>
-  </si>
-  <si>
-    <t>86 år eller eldre</t>
-  </si>
-  <si>
-    <t>87 år eller eldre</t>
-  </si>
-  <si>
-    <t>88 år eller eldre</t>
-  </si>
-  <si>
-    <t>89 år eller eldre</t>
-  </si>
-  <si>
-    <t>92 år eller eldre</t>
-  </si>
-  <si>
-    <t>93 år eller eldre</t>
-  </si>
-  <si>
-    <t>94 år eller eldre</t>
-  </si>
-  <si>
-    <t>95 år eller eldre</t>
-  </si>
-  <si>
-    <t>96 år eller eldre</t>
-  </si>
-  <si>
-    <t>97 år eller eldre</t>
-  </si>
-  <si>
-    <t>98 år eller eldre</t>
-  </si>
-  <si>
-    <t>99 år eller eldre</t>
-  </si>
-  <si>
     <t>16-66 år</t>
-  </si>
-  <si>
-    <t>32 år eller eldre</t>
-  </si>
-  <si>
-    <t>33 år eller eldre</t>
-  </si>
-  <si>
-    <t>34 år eller eldre</t>
-  </si>
-  <si>
-    <t>35 år eller eldre</t>
-  </si>
-  <si>
-    <t>36 år eller eldre</t>
-  </si>
-  <si>
-    <t>37 år eller eldre</t>
-  </si>
-  <si>
-    <t>38 år eller eldre</t>
-  </si>
-  <si>
-    <t>39 år eller eldre</t>
-  </si>
-  <si>
-    <t>40 år eller eldre</t>
-  </si>
-  <si>
-    <t>41 år eller eldre</t>
-  </si>
-  <si>
-    <t>42 år eller eldre</t>
-  </si>
-  <si>
-    <t>43 år eller eldre</t>
-  </si>
-  <si>
-    <t>44 år eller eldre</t>
-  </si>
-  <si>
-    <t>45 år eller eldre</t>
-  </si>
-  <si>
-    <t>46 år eller eldre</t>
-  </si>
-  <si>
-    <t>47 år eller eldre</t>
-  </si>
-  <si>
-    <t>48 år eller eldre</t>
-  </si>
-  <si>
-    <t>49 år eller eldre</t>
-  </si>
-  <si>
-    <t>50 år eller eldre</t>
-  </si>
-  <si>
-    <t>51 år eller eldre</t>
-  </si>
-  <si>
-    <t>52 år eller eldre</t>
-  </si>
-  <si>
-    <t>53 år eller eldre</t>
-  </si>
-  <si>
-    <t>54 år eller eldre</t>
-  </si>
-  <si>
-    <t>55 år eller eldre</t>
-  </si>
-  <si>
-    <t>56 år eller eldre</t>
-  </si>
-  <si>
-    <t>57 år eller eldre</t>
-  </si>
-  <si>
-    <t>58 år eller eldre</t>
-  </si>
-  <si>
-    <t>59 år eller eldre</t>
-  </si>
-  <si>
-    <t>60 år eller eldre</t>
-  </si>
-  <si>
-    <t>61 år eller eldre</t>
-  </si>
-  <si>
-    <t>62 år eller eldre</t>
-  </si>
-  <si>
-    <t>63 år eller eldre</t>
-  </si>
-  <si>
-    <t>64 år eller eldre</t>
   </si>
 </sst>
 </file>
@@ -890,17 +647,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED92EC-ACBD-4A60-85A9-C16DBFEEF20C}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -908,37 +665,37 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
       <c r="L1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -946,37 +703,37 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -984,37 +741,37 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1022,37 +779,37 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1060,37 +817,37 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1098,37 +855,37 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1136,37 +893,37 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1174,37 +931,37 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1212,37 +969,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1250,37 +1007,37 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1288,37 +1045,37 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1326,37 +1083,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1364,37 +1121,37 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1402,37 +1159,37 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1440,37 +1197,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1478,37 +1235,37 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1516,37 +1273,37 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1554,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
@@ -1572,19 +1329,19 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1592,16 +1349,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -1610,19 +1367,19 @@
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1630,16 +1387,16 @@
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
@@ -1648,19 +1405,19 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1668,16 +1425,16 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -1686,19 +1443,19 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1706,37 +1463,37 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1744,37 +1501,37 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1782,37 +1539,37 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1820,37 +1577,37 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
       </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K25" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1858,37 +1615,37 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1896,37 +1653,37 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1934,37 +1691,37 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1972,37 +1729,37 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2010,37 +1767,37 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2048,37 +1805,37 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K31" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2086,37 +1843,37 @@
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2124,37 +1881,37 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>5</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2162,37 +1919,37 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H34" t="s">
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2200,37 +1957,37 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2238,37 +1995,37 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s">
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="K36" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2276,37 +2033,37 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
         <v>5</v>
       </c>
       <c r="I37" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2314,37 +2071,37 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K38" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2352,37 +2109,37 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
         <v>5</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2390,37 +2147,37 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s">
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2428,37 +2185,37 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K41" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2466,37 +2223,37 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s">
         <v>5</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K42" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2504,37 +2261,37 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J43" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2542,37 +2299,37 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J44" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2580,37 +2337,37 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2618,37 +2375,37 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H46" t="s">
         <v>5</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2656,37 +2413,37 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H47" t="s">
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2694,37 +2451,37 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s">
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J48" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2732,37 +2489,37 @@
         <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H49" t="s">
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J49" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K49" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2770,37 +2527,37 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K50" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2808,37 +2565,37 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H51" t="s">
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K51" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2846,37 +2603,37 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H52" t="s">
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2884,37 +2641,37 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s">
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2922,37 +2679,37 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H54" t="s">
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2960,37 +2717,37 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H55" t="s">
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2998,37 +2755,37 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s">
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3036,37 +2793,37 @@
         <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H57" t="s">
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J57" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K57" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3074,37 +2831,37 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H58" t="s">
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3112,37 +2869,37 @@
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
         <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K59" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3150,37 +2907,37 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3188,37 +2945,37 @@
         <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H61" t="s">
         <v>6</v>
       </c>
       <c r="I61" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J61" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K61" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3226,37 +2983,37 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H62" t="s">
         <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J62" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K62" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3264,37 +3021,37 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s">
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3302,37 +3059,37 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s">
         <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K64" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3340,37 +3097,37 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J65" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3378,37 +3135,37 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H66" t="s">
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3416,37 +3173,37 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H67" t="s">
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J67" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3454,37 +3211,37 @@
         <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H68" t="s">
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J68" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="L68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3492,37 +3249,37 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s">
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3530,37 +3287,37 @@
         <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s">
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J70" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K70" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3568,37 +3325,37 @@
         <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s">
         <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J71" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K71" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3606,37 +3363,37 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H72" t="s">
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J72" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K72" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3644,37 +3401,37 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s">
         <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K73" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L73" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3682,37 +3439,37 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G74" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3720,37 +3477,37 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s">
         <v>7</v>
       </c>
       <c r="I75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3758,37 +3515,37 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H76" t="s">
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J76" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="K76" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3796,37 +3553,37 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H77" t="s">
         <v>7</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J77" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K77" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L77" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3834,37 +3591,37 @@
         <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
         <v>7</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K78" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3872,37 +3629,37 @@
         <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s">
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J79" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K79" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3910,37 +3667,37 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H80" t="s">
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K80" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L80" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3948,227 +3705,227 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s">
         <v>7</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J81" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L81" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J82" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K82" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J83" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K83" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H84" t="s">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J84" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K84" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L84" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E85" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H85" t="s">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J85" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K85" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H86" t="s">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J86" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K86" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L86" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4179,34 +3936,34 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H87" t="s">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J87" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K87" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4217,34 +3974,34 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F88" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H88" t="s">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J88" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K88" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L88" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4255,34 +4012,34 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F89" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H89" t="s">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J89" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K89" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4293,34 +4050,34 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G90" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H90" t="s">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K90" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L90" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4331,636 +4088,636 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H91" t="s">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J91" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J92" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K92" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H93" t="s">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J93" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K93" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F94" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H94" t="s">
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J94" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K94" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H95" t="s">
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J95" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K95" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H96" t="s">
         <v>1</v>
       </c>
       <c r="I96" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K96" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H97" t="s">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J97" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K97" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H98" t="s">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J98" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K98" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H99" t="s">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J99" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K99" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H100" t="s">
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J100" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K100" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G101" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H101" t="s">
         <v>1</v>
       </c>
       <c r="I101" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J101" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K101" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E102" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G102" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H102" t="s">
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J102" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K102" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F103" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G103" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H103" t="s">
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J103" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K103" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E104" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F104" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H104" t="s">
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J104" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K104" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E105" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G105" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H105" t="s">
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J105" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K105" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G106" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H106" t="s">
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J106" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K106" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G107" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H107" t="s">
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="J107" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="K107" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L107" t="s">
         <v>1</v>
@@ -4977,6 +4734,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5177,15 +4943,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5196,6 +4953,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8014FBB-235F-4AA0-B5DB-CBFECF29D279}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02F52DDF-9E61-44E0-A23B-C90E4CA1E408}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5210,14 +4975,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8014FBB-235F-4AA0-B5DB-CBFECF29D279}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
